--- a/IO_sample7.xlsx
+++ b/IO_sample7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,27 +200,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$117</c:f>
+              <c:f>Sheet1!$A$1:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.0</c:v>
@@ -232,13 +232,13 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.0</c:v>
@@ -247,31 +247,31 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.0</c:v>
@@ -280,22 +280,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.0</c:v>
@@ -304,19 +304,19 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3.0</c:v>
@@ -331,7 +331,7 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.0</c:v>
@@ -340,10 +340,10 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.0</c:v>
@@ -355,43 +355,43 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3.0</c:v>
@@ -415,52 +415,52 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1.0</c:v>
@@ -469,46 +469,46 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2.0</c:v>
@@ -520,39 +520,24 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -591,21 +576,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$117</c:f>
+              <c:f>Sheet1!$B$1:$B$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.0</c:v>
@@ -614,13 +599,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.0</c:v>
@@ -632,13 +617,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.0</c:v>
@@ -647,7 +632,7 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2.0</c:v>
@@ -656,58 +641,58 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.0</c:v>
@@ -716,40 +701,40 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3.0</c:v>
@@ -758,13 +743,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3.0</c:v>
@@ -773,13 +758,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>3.0</c:v>
@@ -791,64 +776,64 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2.0</c:v>
@@ -860,16 +845,16 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>2.0</c:v>
@@ -878,22 +863,22 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>3.0</c:v>
@@ -902,48 +887,33 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -982,21 +952,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$117</c:f>
+              <c:f>Sheet1!$C$1:$C$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.0</c:v>
@@ -1005,13 +975,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.0</c:v>
@@ -1032,13 +1002,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.0</c:v>
@@ -1047,7 +1017,7 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.0</c:v>
@@ -1056,19 +1026,19 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.0</c:v>
@@ -1077,34 +1047,34 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3.0</c:v>
@@ -1116,10 +1086,10 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3.0</c:v>
@@ -1134,19 +1104,19 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>2.0</c:v>
@@ -1167,19 +1137,19 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.0</c:v>
@@ -1197,19 +1167,19 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>2.0</c:v>
@@ -1221,22 +1191,22 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>3.0</c:v>
@@ -1260,81 +1230,66 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1359,11 +1314,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147291960"/>
-        <c:axId val="-2147295496"/>
+        <c:axId val="2124958584"/>
+        <c:axId val="2124959992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147291960"/>
+        <c:axId val="2124958584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147295496"/>
+        <c:crossAx val="2124959992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1400,7 +1355,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147295496"/>
+        <c:axId val="2124959992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147291960"/>
+        <c:crossAx val="2124958584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1498,14 +1453,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285840</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67732</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>98640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98999</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
@@ -1851,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1865,16 +1820,20 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <f t="shared" ref="F1:F60" si="0">E1-1</f>
+        <v>3</v>
       </c>
       <c r="J1" s="1">
         <v>1</v>
@@ -1891,16 +1850,20 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
@@ -1917,16 +1880,20 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
@@ -1943,16 +1910,20 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1969,7 +1940,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1979,6 +1950,10 @@
       </c>
       <c r="E5" s="1">
         <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
@@ -1995,7 +1970,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2003,8 +1978,15 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="1">
         <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
@@ -2024,12 +2006,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" s="1">
@@ -2050,12 +2036,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8" s="1">
@@ -2076,12 +2066,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9" s="1">
@@ -2099,7 +2093,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2108,12 +2102,16 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2121,16 +2119,17 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -2140,6 +2139,10 @@
       </c>
       <c r="E12" s="1">
         <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2159,13 +2162,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2185,13 +2192,17 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>3</v>
@@ -2208,16 +2219,20 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2234,16 +2249,20 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -2260,16 +2279,20 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>3</v>
@@ -2289,13 +2312,17 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2312,7 +2339,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2322,6 +2349,10 @@
       </c>
       <c r="E19" s="1">
         <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
@@ -2338,7 +2369,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2348,6 +2379,10 @@
       </c>
       <c r="E20" s="1">
         <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>3</v>
@@ -2364,16 +2399,20 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2390,16 +2429,20 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -2416,16 +2459,20 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>3</v>
@@ -2445,13 +2492,17 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2471,13 +2522,17 @@
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -2494,16 +2549,20 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>3</v>
@@ -2520,16 +2579,20 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2546,16 +2609,20 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
@@ -2572,16 +2639,20 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
         <v>3</v>
@@ -2598,15 +2669,19 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J30" s="1">
@@ -2624,15 +2699,19 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J31" s="1">
@@ -2653,13 +2732,17 @@
         <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J32" s="1">
         <v>2</v>
@@ -2679,13 +2762,17 @@
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J33" s="1">
         <v>2</v>
@@ -2702,16 +2789,20 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J34" s="1">
         <v>3</v>
@@ -2728,16 +2819,20 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
@@ -2757,13 +2852,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J36" s="1">
         <v>3</v>
@@ -2780,30 +2879,38 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2814,10 +2921,14 @@
         <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2828,10 +2939,14 @@
         <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2839,13 +2954,17 @@
         <v>2</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2853,27 +2972,35 @@
         <v>2</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2881,13 +3008,17 @@
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2895,41 +3026,53 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2937,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -2945,125 +3088,161 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>3</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>3</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -3071,10 +3250,14 @@
       <c r="E57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
@@ -3085,10 +3268,14 @@
       <c r="E58" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1">
         <v>3</v>
@@ -3099,13 +3286,17 @@
       <c r="E59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>3</v>
       </c>
       <c r="B60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -3113,50 +3304,66 @@
       <c r="E60" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="1">
+        <f t="shared" ref="F61:F122" si="1">E61-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -3164,13 +3371,17 @@
         <v>3</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -3178,18 +3389,22 @@
         <v>3</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>2</v>
       </c>
       <c r="B66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3197,13 +3412,17 @@
       <c r="E66" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>2</v>
       </c>
       <c r="B67" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3211,13 +3430,17 @@
       <c r="E67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>2</v>
       </c>
       <c r="B68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3225,13 +3448,17 @@
       <c r="E68" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>3</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3239,13 +3466,17 @@
       <c r="E69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3253,209 +3484,269 @@
       <c r="E70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
       </c>
       <c r="C71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>3</v>
-      </c>
-      <c r="B74" s="1">
-        <v>2</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>3</v>
-      </c>
-      <c r="B75" s="1">
-        <v>2</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1">
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>3</v>
-      </c>
-      <c r="B76" s="1">
-        <v>2</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1">
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>3</v>
-      </c>
-      <c r="B77" s="1">
-        <v>3</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2</v>
-      </c>
-      <c r="E77" s="1">
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>3</v>
-      </c>
-      <c r="B78" s="1">
-        <v>3</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>3</v>
-      </c>
-      <c r="B79" s="1">
-        <v>3</v>
-      </c>
-      <c r="C79" s="1">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>2</v>
-      </c>
-      <c r="B80" s="1">
-        <v>2</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>1</v>
-      </c>
-      <c r="B81" s="1">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>3</v>
@@ -3463,10 +3754,14 @@
       <c r="E85" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
         <v>2</v>
@@ -3477,8 +3772,12 @@
       <c r="E86" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -3491,8 +3790,12 @@
       <c r="E87" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -3505,414 +3808,534 @@
       <c r="E88" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1">
         <v>3</v>
       </c>
       <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>6</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1">
-        <v>2</v>
-      </c>
-      <c r="C90" s="1">
-        <v>3</v>
-      </c>
-      <c r="E90" s="1">
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>1</v>
-      </c>
-      <c r="B91" s="1">
-        <v>2</v>
-      </c>
-      <c r="C91" s="1">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1">
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1">
-        <v>3</v>
-      </c>
-      <c r="E92" s="1">
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>6</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1">
-        <v>2</v>
-      </c>
-      <c r="C93" s="1">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>2</v>
-      </c>
-      <c r="B94" s="1">
-        <v>2</v>
-      </c>
-      <c r="C94" s="1">
-        <v>3</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>3</v>
-      </c>
-      <c r="B95" s="1">
-        <v>3</v>
-      </c>
-      <c r="C95" s="1">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>3</v>
-      </c>
-      <c r="B96" s="1">
-        <v>3</v>
-      </c>
-      <c r="C96" s="1">
-        <v>3</v>
-      </c>
-      <c r="E96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>1</v>
-      </c>
-      <c r="B101" s="1">
-        <v>3</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1">
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>1</v>
-      </c>
-      <c r="B102" s="1">
-        <v>3</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1">
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>2</v>
-      </c>
-      <c r="B103" s="1">
-        <v>3</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="E103" s="1">
+      <c r="F106" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>2</v>
-      </c>
-      <c r="B104" s="1">
-        <v>3</v>
-      </c>
-      <c r="C104" s="1">
-        <v>2</v>
-      </c>
-      <c r="E104" s="1">
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>2</v>
-      </c>
-      <c r="B105" s="1">
-        <v>3</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="E105" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>2</v>
-      </c>
-      <c r="B106" s="1">
-        <v>3</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1">
-        <v>3</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>2</v>
       </c>
       <c r="B110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" s="1">
+        <v>8</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" s="1">
+        <v>8</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112" s="1">
+        <v>5</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>3</v>
-      </c>
-      <c r="B113" s="1">
-        <v>2</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2</v>
-      </c>
-      <c r="E113" s="1">
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>3</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>2</v>
-      </c>
-      <c r="B114" s="1">
-        <v>2</v>
-      </c>
-      <c r="C114" s="1">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1">
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>1</v>
-      </c>
-      <c r="B115" s="1">
-        <v>3</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>1</v>
-      </c>
-      <c r="B116" s="1">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>1</v>
-      </c>
-      <c r="B117" s="1">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -3925,22 +4348,30 @@
       <c r="E118" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -3953,22 +4384,30 @@
       <c r="E120" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>1</v>
       </c>
       <c r="B121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -3981,75 +4420,9 @@
       <c r="E122" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>1</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
-        <v>3</v>
-      </c>
-      <c r="B124" s="1">
-        <v>3</v>
-      </c>
-      <c r="C124" s="1">
-        <v>3</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
-        <v>1</v>
-      </c>
-      <c r="B125" s="1">
-        <v>1</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
-      <c r="E125" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
-        <v>1</v>
-      </c>
-      <c r="B126" s="1">
-        <v>1</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
-        <v>1</v>
-      </c>
-      <c r="B127" s="1">
-        <v>1</v>
-      </c>
-      <c r="C127" s="1">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1">
-        <v>8</v>
+      <c r="F122" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/IO_sample7.xlsx
+++ b/IO_sample7.xlsx
@@ -200,12 +200,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$112</c:f>
+              <c:f>Sheet1!$A$1:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -283,52 +283,52 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.0</c:v>
@@ -340,13 +340,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.0</c:v>
@@ -355,25 +355,25 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3.0</c:v>
@@ -382,7 +382,7 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>2.0</c:v>
@@ -391,7 +391,7 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3.0</c:v>
@@ -400,31 +400,31 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.0</c:v>
@@ -445,19 +445,19 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1.0</c:v>
@@ -472,72 +472,42 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -576,12 +546,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$112</c:f>
+              <c:f>Sheet1!$B$1:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -659,10 +629,10 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.0</c:v>
@@ -671,13 +641,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2.0</c:v>
@@ -692,13 +662,13 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1.0</c:v>
@@ -707,31 +677,31 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3.0</c:v>
@@ -743,13 +713,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3.0</c:v>
@@ -758,49 +728,49 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.0</c:v>
@@ -818,34 +788,34 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>3.0</c:v>
@@ -854,66 +824,36 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -952,12 +892,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$112</c:f>
+              <c:f>Sheet1!$C$1:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -1035,10 +975,10 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.0</c:v>
@@ -1047,13 +987,13 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.0</c:v>
@@ -1062,19 +1002,19 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3.0</c:v>
@@ -1092,16 +1032,16 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2.0</c:v>
@@ -1119,22 +1059,22 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.0</c:v>
@@ -1149,22 +1089,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>2.0</c:v>
@@ -1182,16 +1122,16 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>3.0</c:v>
@@ -1203,34 +1143,34 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.0</c:v>
@@ -1257,39 +1197,9 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1806,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F83" sqref="A83:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1820,20 +1730,20 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="F1:F60" si="0">E1-1</f>
-        <v>3</v>
+        <f t="shared" ref="F1:F54" si="0">E1-1</f>
+        <v>0</v>
       </c>
       <c r="J1" s="1">
         <v>1</v>
@@ -2579,20 +2489,20 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2609,20 +2519,20 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
@@ -2639,7 +2549,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -2648,11 +2558,11 @@
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1">
         <v>3</v>
@@ -2669,7 +2579,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -2699,13 +2609,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -2732,10 +2642,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -2759,13 +2669,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -2789,7 +2699,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2819,7 +2729,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -2849,13 +2759,13 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -2879,13 +2789,13 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -2900,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -2915,13 +2825,13 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -2936,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -2951,7 +2861,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -2969,7 +2879,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -2990,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -3008,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -3026,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -3041,56 +2951,56 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3098,17 +3008,17 @@
         <v>3</v>
       </c>
       <c r="B49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3116,40 +3026,40 @@
         <v>3</v>
       </c>
       <c r="B50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -3167,7 +3077,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -3185,7 +3095,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -3203,55 +3113,55 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
         <v>4</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F55:F112" si="1">E55-1</f>
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>4</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3263,13 +3173,13 @@
         <v>3</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>4</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3281,31 +3191,31 @@
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
         <v>4</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3314,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3323,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" ref="F61:F122" si="1">E61-1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3332,7 +3242,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3347,10 +3257,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3368,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3386,10 +3296,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
@@ -3401,13 +3311,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1">
         <v>4</v>
@@ -3419,79 +3329,79 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <v>2</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
@@ -3500,65 +3410,65 @@
         <v>2</v>
       </c>
       <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
       <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
-      </c>
-      <c r="F72" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1">
         <v>3</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3572,11 +3482,11 @@
         <v>3</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3587,14 +3497,14 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3605,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -3623,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
@@ -3641,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
@@ -3656,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
@@ -3671,10 +3581,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>3</v>
@@ -3689,10 +3599,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1">
         <v>3</v>
@@ -3707,20 +3617,20 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1">
         <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1">
+        <v>6</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
-      </c>
-      <c r="F83" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3728,35 +3638,35 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
-      </c>
-      <c r="F84" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
         <v>2</v>
       </c>
       <c r="C85" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
+        <v>6</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
-      </c>
-      <c r="F85" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3764,17 +3674,17 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1">
+        <v>6</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
-      </c>
-      <c r="F86" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3782,17 +3692,17 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3800,17 +3710,17 @@
         <v>2</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" s="1">
+        <v>6</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
-      </c>
-      <c r="F88" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3818,64 +3728,64 @@
         <v>2</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
       </c>
       <c r="C91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -3887,82 +3797,82 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
       </c>
       <c r="E94" s="1">
+        <v>7</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
-      </c>
-      <c r="F94" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="1">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
-      </c>
-      <c r="F95" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="1">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
-      </c>
-      <c r="F96" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -3977,38 +3887,38 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
       </c>
       <c r="E98" s="1">
+        <v>7</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
-      </c>
-      <c r="F98" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="E99" s="1">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
-      </c>
-      <c r="F99" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4016,58 +3926,58 @@
         <v>2</v>
       </c>
       <c r="B100" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
         <v>2</v>
       </c>
       <c r="E100" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
@@ -4076,11 +3986,11 @@
         <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4091,19 +4001,19 @@
         <v>1</v>
       </c>
       <c r="C104" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -4112,34 +4022,34 @@
         <v>1</v>
       </c>
       <c r="E105" s="1">
+        <v>8</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
-      </c>
-      <c r="F105" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4148,29 +4058,29 @@
         <v>1</v>
       </c>
       <c r="E107" s="1">
+        <v>8</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
-      </c>
-      <c r="F107" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" s="1">
+        <v>8</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
-      </c>
-      <c r="F108" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4178,28 +4088,28 @@
         <v>3</v>
       </c>
       <c r="B109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1">
         <v>8</v>
@@ -4238,189 +4148,9 @@
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1">
-        <v>1</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1">
-        <v>8</v>
-      </c>
-      <c r="F113" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1">
-        <v>2</v>
-      </c>
-      <c r="B114" s="1">
-        <v>1</v>
-      </c>
-      <c r="C114" s="1">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1">
-        <v>3</v>
-      </c>
-      <c r="F114" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1">
-        <v>1</v>
-      </c>
-      <c r="B115" s="1">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1">
-        <v>8</v>
-      </c>
-      <c r="F115" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1">
-        <v>1</v>
-      </c>
-      <c r="B116" s="1">
-        <v>3</v>
-      </c>
-      <c r="C116" s="1">
-        <v>3</v>
-      </c>
-      <c r="E116" s="1">
-        <v>2</v>
-      </c>
-      <c r="F116" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1">
-        <v>1</v>
-      </c>
-      <c r="B117" s="1">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1">
-        <v>8</v>
-      </c>
-      <c r="F117" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1">
-        <v>1</v>
-      </c>
-      <c r="B118" s="1">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1">
-        <v>8</v>
-      </c>
-      <c r="F118" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>3</v>
-      </c>
-      <c r="B119" s="1">
-        <v>3</v>
-      </c>
-      <c r="C119" s="1">
-        <v>3</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1">
-        <v>1</v>
-      </c>
-      <c r="B120" s="1">
-        <v>1</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1">
-        <v>8</v>
-      </c>
-      <c r="F120" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>1</v>
-      </c>
-      <c r="B121" s="1">
-        <v>1</v>
-      </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1">
-        <v>8</v>
-      </c>
-      <c r="F121" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>1</v>
-      </c>
-      <c r="B122" s="1">
-        <v>1</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
-        <v>8</v>
-      </c>
-      <c r="F122" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
